--- a/Categorical+variables.+Visualization+techniques_exercise_completed.xlsx
+++ b/Categorical+variables.+Visualization+techniques_exercise_completed.xlsx
@@ -1,74 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10414"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A295083C-E96D-2E42-837C-B5A91FA4CE46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{642FF612-689B-ED40-ABDA-932CA0DBEDC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2960" yWindow="1660" windowWidth="22260" windowHeight="12640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2960" yWindow="1660" windowWidth="24380" windowHeight="14760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="14" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="15" r:id="rId2"/>
-    <sheet name="Frequency distribution table" sheetId="4" r:id="rId3"/>
-    <sheet name="Bar chart" sheetId="8" r:id="rId4"/>
-    <sheet name="Pie chart" sheetId="7" r:id="rId5"/>
-    <sheet name="Pareto diagram" sheetId="12" r:id="rId6"/>
+    <sheet name="Frequency distribution table" sheetId="4" r:id="rId2"/>
+    <sheet name="Bar chart" sheetId="8" r:id="rId3"/>
+    <sheet name="Pie chart" sheetId="7" r:id="rId4"/>
+    <sheet name="Pareto diagram" sheetId="12" r:id="rId5"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$A$2:$A$4</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$B$1</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">Sheet1!$B$1</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">Sheet1!$B$2:$B$4</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">Sheet1!$A$2:$A$4</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">Sheet1!$B$1</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">Sheet1!$B$2:$B$4</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">Sheet1!$A$2:$A$4</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">Sheet1!$B$1</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">Sheet1!$B$2:$B$4</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">Sheet1!$A$2:$A$4</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">Sheet1!$B$1</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$B$2:$B$4</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">Sheet1!$B$2:$B$4</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">Sheet1!$A$2:$A$4</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">Sheet1!$B$1</definedName>
-    <definedName name="_xlchart.v1.23" hidden="1">Sheet1!$B$2:$B$4</definedName>
-    <definedName name="_xlchart.v1.24" hidden="1">Sheet1!$K$20</definedName>
-    <definedName name="_xlchart.v1.25" hidden="1">Sheet1!$A$2:$A$4</definedName>
-    <definedName name="_xlchart.v1.26" hidden="1">Sheet1!$B$1</definedName>
-    <definedName name="_xlchart.v1.27" hidden="1">Sheet1!$B$2:$B$4</definedName>
-    <definedName name="_xlchart.v1.28" hidden="1">Sheet1!$K$20</definedName>
-    <definedName name="_xlchart.v1.29" hidden="1">Sheet1!$A$2:$A$4</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$K$20</definedName>
-    <definedName name="_xlchart.v1.30" hidden="1">Sheet1!$B$1</definedName>
-    <definedName name="_xlchart.v1.31" hidden="1">Sheet1!$B$2:$B$4</definedName>
-    <definedName name="_xlchart.v1.32" hidden="1">Sheet1!$K$20</definedName>
-    <definedName name="_xlchart.v1.33" hidden="1">Sheet1!$A$2:$A$4</definedName>
-    <definedName name="_xlchart.v1.34" hidden="1">Sheet1!$B$1</definedName>
-    <definedName name="_xlchart.v1.35" hidden="1">Sheet1!$B$2:$B$4</definedName>
-    <definedName name="_xlchart.v1.36" hidden="1">Sheet1!$K$20</definedName>
-    <definedName name="_xlchart.v1.37" hidden="1">Sheet1!$A$2:$A$4</definedName>
-    <definedName name="_xlchart.v1.38" hidden="1">Sheet1!$B$1</definedName>
-    <definedName name="_xlchart.v1.39" hidden="1">Sheet1!$B$2:$B$4</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$A$2:$A$4</definedName>
-    <definedName name="_xlchart.v1.40" hidden="1">Sheet1!$K$20</definedName>
-    <definedName name="_xlchart.v1.41" hidden="1">Sheet1!$A$2:$A$4</definedName>
-    <definedName name="_xlchart.v1.42" hidden="1">Sheet1!$B$1</definedName>
-    <definedName name="_xlchart.v1.43" hidden="1">Sheet1!$B$2:$B$4</definedName>
-    <definedName name="_xlchart.v1.44" hidden="1">Sheet1!$A$2:$A$4</definedName>
-    <definedName name="_xlchart.v1.45" hidden="1">Sheet1!$B$1</definedName>
-    <definedName name="_xlchart.v1.46" hidden="1">Sheet1!$B$2:$B$4</definedName>
-    <definedName name="_xlchart.v1.47" hidden="1">Sheet1!$K$20</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$B$1</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$B$2:$B$4</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$K$20</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$K$20</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Sheet1!$A$2:$A$4</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
-  <pivotCaches>
-    <pivotCache cacheId="26" r:id="rId7"/>
-  </pivotCaches>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -90,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="30">
   <si>
     <t>Background</t>
   </si>
@@ -181,36 +127,6 @@
   <si>
     <t>CUMULATIVE FREQUENCY</t>
   </si>
-  <si>
-    <t>UNITS SOLD</t>
-  </si>
-  <si>
-    <t>Row Labels</t>
-  </si>
-  <si>
-    <t>Grand Total</t>
-  </si>
-  <si>
-    <t>Sum of UNITS SOLD</t>
-  </si>
-  <si>
-    <t>Relative Frequency</t>
-  </si>
-  <si>
-    <t>Cumulative Frequency</t>
-  </si>
-  <si>
-    <t>Sum of Relative Frequency</t>
-  </si>
-  <si>
-    <t>Max of Cumulative Frequency</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Can't make pareto chart show percentages? </t>
-  </si>
 </sst>
 </file>
 
@@ -300,7 +216,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -316,11 +232,6 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="2" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -1406,474 +1317,6 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:pieChart>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>UNITS SOLD</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000002-EE72-F246-B169-98808C0EC218}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="ctr"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="1"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="1"/>
-            <c:leaderLines>
-              <c:spPr>
-                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="35000"/>
-                      <a:lumOff val="65000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:round/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:leaderLines>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$A$2:$A$4</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>LA</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>SF</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>NY</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$2:$B$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>13</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-EE72-F246-B169-98808C0EC218}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Relative Frequency</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$A$2:$A$4</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>LA</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>SF</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>NY</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$C$2:$C$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>0.39583333333333331</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.33333333333333331</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.27083333333333331</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-EE72-F246-B169-98808C0EC218}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
-        </c:dLbls>
-        <c:firstSliceAng val="0"/>
-      </c:pieChart>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
-<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
-  <cx:chartData>
-    <cx:data id="0">
-      <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.21</cx:f>
-      </cx:strDim>
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.23</cx:f>
-      </cx:numDim>
-    </cx:data>
-  </cx:chartData>
-  <cx:chart>
-    <cx:title pos="t" align="ctr" overlay="0">
-      <cx:tx>
-        <cx:txData>
-          <cx:v>Chart Title</cx:v>
-        </cx:txData>
-      </cx:tx>
-    </cx:title>
-    <cx:plotArea>
-      <cx:plotAreaRegion>
-        <cx:series layoutId="clusteredColumn" uniqueId="{C73E6645-2078-C74F-B64F-321D53322554}">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.22</cx:f>
-              <cx:v>UNITS SOLD</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataPt idx="0"/>
-          <cx:dataPt idx="1"/>
-          <cx:dataPt idx="2"/>
-          <cx:dataLabels pos="inBase"/>
-          <cx:dataId val="0"/>
-          <cx:layoutPr>
-            <cx:aggregation/>
-          </cx:layoutPr>
-          <cx:axisId val="1"/>
-        </cx:series>
-        <cx:series layoutId="paretoLine" ownerIdx="0" uniqueId="{15AA3369-D37F-6741-9562-4891724F7359}">
-          <cx:axisId val="2"/>
-        </cx:series>
-      </cx:plotAreaRegion>
-      <cx:axis id="0">
-        <cx:catScaling gapWidth="0"/>
-        <cx:tickLabels/>
-      </cx:axis>
-      <cx:axis id="1">
-        <cx:valScaling/>
-        <cx:title/>
-        <cx:majorGridlines/>
-        <cx:tickLabels/>
-      </cx:axis>
-      <cx:axis id="2">
-        <cx:valScaling max="1" min="0"/>
-        <cx:units unit="percentage"/>
-        <cx:tickLabels/>
-      </cx:axis>
-    </cx:plotArea>
-    <cx:legend pos="b" align="ctr" overlay="0"/>
-  </cx:chart>
-</cx:chartSpace>
-</file>
-
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1954,86 +1397,6 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -3052,1033 +2415,6 @@
         <a:noFill/>
       </a:ln>
     </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="25400">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="366">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat">
-        <a:solidFill>
-          <a:srgbClr val="D9D9D9"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -4158,252 +2494,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>161241</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>154642</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>96371</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3E57D84-44E2-1662-3302-13E652A22BF2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>483336</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>36075</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>1648791</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>18406</xdr:rowOff>
-    </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
-        <xdr:graphicFrame macro="">
-          <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="9" name="Chart 8">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{018A173A-A3D8-8A3E-08D9-2689F98264CC}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvGraphicFramePr/>
-          </xdr:nvGraphicFramePr>
-          <xdr:xfrm>
-            <a:off x="0" y="0"/>
-            <a:ext cx="0" cy="0"/>
-          </xdr:xfrm>
-          <a:graphic>
-            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
-              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-            </a:graphicData>
-          </a:graphic>
-        </xdr:graphicFrame>
-      </mc:Choice>
-      <mc:Fallback>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="0" name=""/>
-            <xdr:cNvSpPr>
-              <a:spLocks noTextEdit="1"/>
-            </xdr:cNvSpPr>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="7578403" y="2085008"/>
-              <a:ext cx="4602921" cy="2776331"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:prstClr val="white"/>
-            </a:solidFill>
-            <a:ln w="1">
-              <a:solidFill>
-                <a:prstClr val="green"/>
-              </a:solidFill>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100"/>
-                <a:t>This chart isn't available in your version of Excel.
-Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Author" refreshedDate="45315.630335648151" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="3" xr:uid="{2B053B5A-B335-184C-9138-366550E545AB}">
-  <cacheSource type="worksheet">
-    <worksheetSource ref="A1:D4" sheet="Sheet1"/>
-  </cacheSource>
-  <cacheFields count="4">
-    <cacheField name="STATE" numFmtId="0">
-      <sharedItems count="3">
-        <s v="LA"/>
-        <s v="SF"/>
-        <s v="NY"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="UNITS SOLD" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="13" maxValue="19"/>
-    </cacheField>
-    <cacheField name="Relative Frequency" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.27083333333333331" maxValue="0.39583333333333331"/>
-    </cacheField>
-    <cacheField name="Cumulative Frequency" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.39583333333333331" maxValue="1"/>
-    </cacheField>
-  </cacheFields>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition/>
-    </ext>
-  </extLst>
-</pivotCacheDefinition>
-</file>
-
-<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="3">
-  <r>
-    <x v="0"/>
-    <n v="19"/>
-    <n v="0.39583333333333331"/>
-    <n v="0.39583333333333331"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <n v="16"/>
-    <n v="0.33333333333333331"/>
-    <n v="0.72916666666666663"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <n v="13"/>
-    <n v="0.27083333333333331"/>
-    <n v="1"/>
-  </r>
-</pivotCacheRecords>
-</file>
-
-<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3D75EAE4-DBA3-3E46-9874-B39B218A16A6}" name="PivotTable7" cacheId="26" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="J5:M9" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="4">
-    <pivotField axis="axisRow" showAll="0" sortType="descending">
-      <items count="4">
-        <item x="1"/>
-        <item x="2"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-      <autoSortScope>
-        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
-          <references count="1">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="1"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </autoSortScope>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="4">
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-  </colItems>
-  <dataFields count="3">
-    <dataField name="Sum of UNITS SOLD" fld="1" baseField="0" baseItem="0"/>
-    <dataField name="Sum of Relative Frequency" fld="2" baseField="0" baseItem="0" numFmtId="10"/>
-    <dataField name="Max of Cumulative Frequency" fld="3" subtotal="max" baseField="0" baseItem="0" numFmtId="10"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4691,8 +2781,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D080D20-CC08-1E41-BE89-761E36819998}">
   <dimension ref="A2:D12"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="106" zoomScaleNormal="69" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="69" workbookViewId="0">
+      <selection activeCell="S30" sqref="S30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4801,183 +2891,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{014CC3AC-C64C-944A-9EA4-95B76A01E645}">
-  <dimension ref="A1:M29"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="69" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="6" max="6" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.83203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="24.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2">
-        <v>19</v>
-      </c>
-      <c r="C2">
-        <f>B2/$B$5</f>
-        <v>0.39583333333333331</v>
-      </c>
-      <c r="D2">
-        <f>C2</f>
-        <v>0.39583333333333331</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3">
-        <v>16</v>
-      </c>
-      <c r="C3">
-        <f t="shared" ref="C3:C4" si="0">B3/$B$5</f>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="D3">
-        <f>D2+C3</f>
-        <v>0.72916666666666663</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4">
-        <v>13</v>
-      </c>
-      <c r="C4">
-        <f t="shared" si="0"/>
-        <v>0.27083333333333331</v>
-      </c>
-      <c r="D4">
-        <f>D3+C4</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B5">
-        <f>SUM(B2:B4)</f>
-        <v>48</v>
-      </c>
-      <c r="C5">
-        <f>B5/$B$5</f>
-        <v>1</v>
-      </c>
-      <c r="J5" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="K5" t="s">
-        <v>33</v>
-      </c>
-      <c r="L5" t="s">
-        <v>36</v>
-      </c>
-      <c r="M5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="J6" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="K6" s="13">
-        <v>19</v>
-      </c>
-      <c r="L6" s="12">
-        <v>0.39583333333333331</v>
-      </c>
-      <c r="M6" s="12">
-        <v>0.39583333333333331</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="J7" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="K7" s="13">
-        <v>16</v>
-      </c>
-      <c r="L7" s="12">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="M7" s="12">
-        <v>0.72916666666666663</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="J8" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="K8" s="13">
-        <v>13</v>
-      </c>
-      <c r="L8" s="12">
-        <v>0.27083333333333331</v>
-      </c>
-      <c r="M8" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="J9" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="K9" s="13">
-        <v>48</v>
-      </c>
-      <c r="L9" s="12">
-        <v>1</v>
-      </c>
-      <c r="M9" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I29" t="s">
-        <v>39</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B4">
-    <sortCondition descending="1" ref="B2:B4"/>
-  </sortState>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:D17"/>
   <sheetViews>
@@ -5065,7 +2978,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:D17"/>
   <sheetViews>
@@ -5149,7 +3062,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:E15"/>
   <sheetViews>
@@ -5239,7 +3152,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B1:F19"/>
   <sheetViews>
